--- a/results/03-2022/contributions-comparison-03-2022.xlsx
+++ b/results/03-2022/contributions-comparison-03-2022.xlsx
@@ -784,10 +784,10 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-0.2063</v>
+        <v>-0.0195</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.142</v>
+        <v>-0.3299</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3325</v>
@@ -924,28 +924,28 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>-0.0847</v>
+        <v>0.035</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0117</v>
+        <v>0.0961</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0306</v>
+        <v>0.0265</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0742</v>
+        <v>-0.0182</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.066</v>
+        <v>-0.1833</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1148</v>
+        <v>-0.1982</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0791</v>
+        <v>-0.1366</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0159</v>
+        <v>-0.0727</v>
       </c>
       <c r="O13" t="n">
         <v>0.0373</v>
@@ -1064,31 +1064,31 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>0.0256</v>
+        <v>0.0908</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0193</v>
+        <v>0.0001</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1882</v>
+        <v>-0.1887</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1003</v>
+        <v>-0.1233</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0612</v>
+        <v>-0.0615</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0508</v>
+        <v>-0.051</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0224</v>
+        <v>-0.0227</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0326</v>
+        <v>-0.0328</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0654</v>
+        <v>-0.0657</v>
       </c>
     </row>
     <row r="18">
@@ -1274,19 +1274,19 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-0.8759</v>
+        <v>-0.7896</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0729</v>
+        <v>-0.0738</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9222</v>
+        <v>-0.9231</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.5543</v>
+        <v>-0.5551</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0434</v>
+        <v>-0.1269</v>
       </c>
       <c r="L23" t="n">
         <v>-0.0269</v>
@@ -1344,31 +1344,31 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.1401</v>
+        <v>-0.1262</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1469</v>
+        <v>-0.1489</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1443</v>
+        <v>-0.145</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0579</v>
+        <v>-0.0587</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6156</v>
+        <v>-0.6157</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6504</v>
+        <v>-0.6505</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3143</v>
+        <v>-0.3144</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1869</v>
+        <v>-0.1876</v>
       </c>
     </row>
     <row r="26">
@@ -1484,31 +1484,31 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-2.4122</v>
+        <v>-2.1353</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.585</v>
+        <v>-3.4856</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.2759</v>
+        <v>-3.2049</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.121</v>
+        <v>-2.0618</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.9007</v>
+        <v>-2.0979</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.0122</v>
+        <v>-3.0913</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.1762</v>
+        <v>-1.2189</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.5962</v>
+        <v>-0.6377</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5302</v>
+        <v>-0.5157</v>
       </c>
     </row>
     <row r="30">
@@ -1624,10 +1624,10 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-0.1993</v>
+        <v>-0.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0802</v>
+        <v>-0.1076</v>
       </c>
       <c r="I33" t="n">
         <v>-0.0575</v>
@@ -1764,31 +1764,31 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>0.0019</v>
+        <v>-0.033</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0335</v>
+        <v>-0.0232</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0347</v>
+        <v>-0.0345</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0348</v>
+        <v>-0.0225</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0224</v>
+        <v>-0.0223</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.0898</v>
+        <v>-1.0897</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0112</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="38">
@@ -1904,10 +1904,10 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>0.2602</v>
+        <v>0.0734</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1675</v>
+        <v>0.3554</v>
       </c>
       <c r="I41" t="n">
         <v>0.2012</v>
@@ -1974,31 +1974,31 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>-0.0314</v>
+        <v>-0.0163</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0324</v>
+        <v>-0.0171</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0316</v>
+        <v>-0.0163</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0312</v>
+        <v>-0.0158</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0331</v>
+        <v>-0.0177</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0339</v>
+        <v>-0.0185</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.025</v>
+        <v>-0.0097</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0234</v>
+        <v>-0.008</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0195</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="44">
@@ -2044,25 +2044,25 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>0.168</v>
+        <v>0.1796</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0902</v>
+        <v>0.1017</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0148</v>
+        <v>0.0151</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0301</v>
+        <v>0.0302</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0044</v>
+        <v>-0.0065</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0201</v>
+        <v>-0.0311</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0777</v>
+        <v>-0.078</v>
       </c>
       <c r="N45" t="n">
         <v>-0.0603</v>
@@ -2674,10 +2674,10 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>-0.018</v>
+        <v>0.1688</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0004</v>
+        <v>-0.1883</v>
       </c>
       <c r="I63" t="n">
         <v>-0.0004</v>
@@ -2814,28 +2814,28 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>-0.0004</v>
+        <v>0.1193</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0004</v>
+        <v>0.0841</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0032</v>
+        <v>0.0603</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0035</v>
+        <v>0.0595</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0033</v>
+        <v>-0.114</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0032</v>
+        <v>-0.0802</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.0003</v>
+        <v>-0.0578</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.0002</v>
+        <v>-0.0569</v>
       </c>
       <c r="O67" t="n">
         <v>-0.0001</v>
@@ -2954,31 +2954,31 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.0653</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>-0.0192</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-0.023</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="72">
@@ -3164,19 +3164,19 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>-0.0003</v>
+        <v>0.0859</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0106</v>
+        <v>0.0097</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-0.0835</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3234,31 +3234,31 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="L79" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="80">
@@ -3374,31 +3374,31 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>-0.0049</v>
+        <v>0.272</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.0054</v>
+        <v>0.0939</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.0034</v>
+        <v>0.0675</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0029</v>
+        <v>0.0621</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0076</v>
+        <v>-0.2048</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.0074</v>
+        <v>-0.0865</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.0071</v>
+        <v>-0.0497</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.0077</v>
+        <v>-0.0493</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0059</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="84">
@@ -3514,10 +3514,10 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>-0.018</v>
+        <v>0.1688</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0004</v>
+        <v>-0.1883</v>
       </c>
       <c r="I87" t="n">
         <v>-0.0004</v>
@@ -3654,31 +3654,31 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-0.0348</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="92">
@@ -3794,10 +3794,10 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>0.018</v>
+        <v>-0.1688</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0003</v>
+        <v>0.1882</v>
       </c>
       <c r="I95" t="n">
         <v>0.0003</v>
@@ -3864,31 +3864,31 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>-0.0124</v>
+        <v>0.0028</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.0123</v>
+        <v>0.0029</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.0121</v>
+        <v>0.0032</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.0118</v>
+        <v>0.0035</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.0115</v>
+        <v>0.0039</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.0112</v>
+        <v>0.0042</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.0109</v>
+        <v>0.0045</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.0107</v>
+        <v>0.0047</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.0105</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="98">
@@ -3934,25 +3934,25 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>0.0051</v>
+        <v>0.0167</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0051</v>
+        <v>0.0166</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.0035</v>
+        <v>-0.0034</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.0035</v>
+        <v>-0.0145</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.0036</v>
+        <v>-0.0145</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="N99" t="n">
         <v>-0.0001</v>
